--- a/Daily_Uptime.xlsx
+++ b/Daily_Uptime.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
-  <si>
-    <t>Communications Uptime for 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+  <si>
+    <t>Communications Uptime for 2022</t>
   </si>
   <si>
     <t>Days</t>
@@ -25,286 +25,667 @@
     <t>Uptime (%)</t>
   </si>
   <si>
-    <t>2023-01-01 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-02 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-03 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-04 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-05 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-06 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-07 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-08 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-09 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-10 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-11 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-12 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-13 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-14 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-15 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-16 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-17 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-18 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-19 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-20 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-21 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-22 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-23 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-24 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-25 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-26 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-27 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-28 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-29 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-30 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-01-31 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-12 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-13 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-15 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-16 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-17 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-18 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-19 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-20 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-21 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-22 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-23 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-24 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-25 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-26 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-27 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-28 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-01 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-02 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-03 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-04 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-05 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-06 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-07 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-08 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-09 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-10 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-11 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-12 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-13 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-15 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-16 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-17 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-18 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-19 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-20 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-21 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-22 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-23 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-24 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-25 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-26 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-27 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-28 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-29 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-30 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-31 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-04-01 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-04-02 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-04-03 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-04-04 00:00:00+00:00</t>
+    <t>2022-05-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-05-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-05-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-05-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-05-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-05-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-05-31 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-12 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-13 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-14 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-15 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-16 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-17 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-18 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-21 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-22 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-23 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-06-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-12 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-13 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-14 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-15 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-16 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-17 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-18 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-21 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-22 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-23 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-07-31 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-12 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-13 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-14 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-15 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-16 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-17 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-18 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-21 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-22 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-23 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-12 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-13 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-14 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-15 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-16 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-17 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-18 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-21 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-22 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-23 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-09-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-12 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-13 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-14 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-15 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-16 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-17 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-18 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-21 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-22 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-23 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-10-31 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-12 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-13 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-14 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-15 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-16 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-17 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-18 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-21 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-22 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-23 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-11-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-12 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-13 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-14 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-15 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-16 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-17 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-18 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-19 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-20 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-21 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-22 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-23 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-24 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-25 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-26 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-27 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-28 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-29 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-30 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-12-31 00:00:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -650,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>62.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -684,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -692,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -700,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>87.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -708,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>98.9583333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -716,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -724,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -732,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -740,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>99.6529166666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -748,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -756,7 +1137,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -764,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -772,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -780,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -788,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -796,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -804,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -812,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -820,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -828,7 +1209,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -836,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -844,7 +1225,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -852,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>54.16666666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -860,7 +1241,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>82.98625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -868,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -876,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>78.12500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -884,7 +1265,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -892,7 +1273,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>91.6666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -900,7 +1281,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>82.9858333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -908,7 +1289,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>83.3333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -916,7 +1297,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -924,7 +1305,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -932,7 +1313,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -940,7 +1321,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>83.3333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -948,7 +1329,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>70.8333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -956,7 +1337,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -964,7 +1345,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -972,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>98.61125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -980,7 +1361,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -988,7 +1369,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -996,7 +1377,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1004,7 +1385,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1012,7 +1393,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1020,7 +1401,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1028,7 +1409,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1036,7 +1417,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1044,7 +1425,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1052,7 +1433,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>95.8333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1060,7 +1441,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>100</v>
+        <v>76.38874999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1068,7 +1449,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>79.1666666666666</v>
+        <v>53.47208333333331</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1076,7 +1457,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>100</v>
+        <v>72.9166666666666</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1084,7 +1465,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>100</v>
+        <v>67.70791666666661</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1092,7 +1473,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>100</v>
+        <v>61.4579166666666</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1100,7 +1481,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>95.8333333333333</v>
+        <v>56.24958333333331</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1108,7 +1489,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>100</v>
+        <v>72.5691666666666</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1116,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>100</v>
+        <v>68.4025</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1124,7 +1505,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>60.0691666666666</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1132,7 +1513,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>100</v>
+        <v>62.84666666666661</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1140,7 +1521,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>69.0970833333333</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1148,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>100</v>
+        <v>63.19458333333331</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1156,7 +1537,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>97.56958333333331</v>
+        <v>71.5275</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1164,7 +1545,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>72.9166666666666</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1172,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>100</v>
+        <v>72.5691666666666</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1180,7 +1561,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>100</v>
+        <v>60.41624999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1188,7 +1569,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>100</v>
+        <v>72.2220833333333</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1196,7 +1577,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>100</v>
+        <v>69.0975</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1204,7 +1585,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>61.4579166666666</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1212,7 +1593,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>100</v>
+        <v>72.9166666666666</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1220,7 +1601,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>100</v>
+        <v>4.51375</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1228,7 +1609,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>81.9441666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1236,7 +1617,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1244,7 +1625,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>100</v>
+        <v>7.9858333333333</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1252,7 +1633,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>98.9583333333333</v>
+        <v>25.69458333333331</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1260,7 +1641,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>1.0416666666666</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1268,7 +1649,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>100</v>
+        <v>17.3608333333333</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1276,7 +1657,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>100</v>
+        <v>0.3470833333333</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1284,7 +1665,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1292,7 +1673,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1300,7 +1681,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1308,7 +1689,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>99.30541666666662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1316,7 +1697,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1324,7 +1705,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1332,7 +1713,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1340,7 +1721,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1348,7 +1729,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1356,7 +1737,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1364,7 +1745,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>91.6666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1372,7 +1753,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1380,7 +1761,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1388,7 +1769,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1396,7 +1777,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>46.1804166666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1404,7 +1785,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>70.48625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1412,7 +1793,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1420,7 +1801,1023 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>100</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>4.1666666666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>60.7637499999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>95.8333333333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>97.9166666666666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>97.9166666666666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>97.2220833333333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>79.51374999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>43.0554166666666</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>37.8475</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>96.87500000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>99.6529166666666</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>95.8333333333333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>93.05541666666662</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>85.4166666666666</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>97.2220833333333</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>80.20791666666661</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>69.7916666666666</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>78.4720833333333</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>98.26374999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>37.8470833333333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>31.5970833333333</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>82.2916666666666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>95.13916666666661</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>99.6529166666666</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>99.6529166666666</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>98.26374999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>99.6529166666666</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>90.2775</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>97.9166666666666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>92.01374999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>98.61125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>84.0279166666666</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>90.2779166666666</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>86.11125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>99.6529166666666</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>90.9720833333333</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>46.5279166666666</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>54.5137499999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>98.9583333333333</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>84.0279166666666</v>
       </c>
     </row>
   </sheetData>
